--- a/example-results.xlsx
+++ b/example-results.xlsx
@@ -9,15 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="10000" windowHeight="7860" tabRatio="500" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="14860" windowHeight="6780" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Demo types" sheetId="1" r:id="rId1"/>
     <sheet name="Demo styles" sheetId="2" r:id="rId2"/>
     <sheet name="Demo spans" sheetId="3" r:id="rId3"/>
     <sheet name="Demo config heigth and width" sheetId="4" r:id="rId4"/>
-    <sheet name="Demo config global width" sheetId="5" r:id="rId5"/>
-    <sheet name="Demo dynamic data" sheetId="6" r:id="rId6"/>
+    <sheet name="Demo dynamic data" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>string value</t>
   </si>
@@ -55,27 +54,9 @@
     <t>cell has heigth 2 rows and width 2 columns</t>
   </si>
   <si>
-    <t>this row has height 10</t>
-  </si>
-  <si>
     <t>this column has width 30</t>
   </si>
   <si>
-    <t>this column hasn't width 30, see down</t>
-  </si>
-  <si>
-    <t>this column has width 50 and replaced width in previous row</t>
-  </si>
-  <si>
-    <t>this column has width 20</t>
-  </si>
-  <si>
-    <t>this column has width 25</t>
-  </si>
-  <si>
-    <t>this column has width 20 and width not replaced</t>
-  </si>
-  <si>
     <t>value 1</t>
   </si>
   <si>
@@ -113,6 +94,12 @@
   </si>
   <si>
     <t>row 4 value 2</t>
+  </si>
+  <si>
+    <t>this column has width 35</t>
+  </si>
+  <si>
+    <t>this row has height 10 and default width</t>
   </si>
 </sst>
 </file>
@@ -560,34 +547,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -597,45 +579,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -646,55 +592,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6"/>
     </row>
